--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">out</t>
   </si>
   <si>
     <t xml:space="preserve">Il padrino</t>
@@ -107,10 +104,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -184,7 +180,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -198,10 +194,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -332,10 +324,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -359,16 +351,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1970</v>
@@ -383,16 +372,13 @@
       <c r="F2" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>45754</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>1960</v>
@@ -407,16 +393,13 @@
       <c r="F3" s="3" t="n">
         <v>5.2</v>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>45754</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>1973</v>
@@ -431,16 +414,13 @@
       <c r="F4" s="3" t="n">
         <v>3.9</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>45754</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>1970</v>
@@ -455,16 +435,13 @@
       <c r="F5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>45754</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>1973</v>
@@ -479,16 +456,13 @@
       <c r="F6" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>45754</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>1964</v>
@@ -503,16 +477,13 @@
       <c r="F7" s="3" t="n">
         <v>1.2</v>
       </c>
-      <c r="G7" s="4" t="n">
-        <v>45754</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>1982</v>
@@ -527,16 +498,13 @@
       <c r="F8" s="3" t="n">
         <v>5.5</v>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>45754</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>2011</v>
@@ -551,16 +519,13 @@
       <c r="F9" s="3" t="n">
         <v>4.3</v>
       </c>
-      <c r="G9" s="4" t="n">
-        <v>45754</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>1968</v>
@@ -575,16 +540,13 @@
       <c r="F10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="4" t="n">
-        <v>45754</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>1984</v>
@@ -599,16 +561,13 @@
       <c r="F11" s="3" t="n">
         <v>8.7</v>
       </c>
-      <c r="G11" s="4" t="n">
-        <v>45754</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>1964</v>
@@ -623,16 +582,13 @@
       <c r="F12" s="3" t="n">
         <v>9.8</v>
       </c>
-      <c r="G12" s="4" t="n">
-        <v>45754</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>1968</v>
@@ -646,9 +602,6 @@
       </c>
       <c r="F13" s="3" t="n">
         <v>7.3</v>
-      </c>
-      <c r="G13" s="4" t="n">
-        <v>45754</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out</t>
   </si>
   <si>
     <t xml:space="preserve">Il padrino</t>
@@ -104,9 +107,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -180,7 +184,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -194,6 +198,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -324,10 +332,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -351,13 +359,16 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1970</v>
@@ -372,13 +383,16 @@
       <c r="F2" s="3" t="n">
         <v>10</v>
       </c>
+      <c r="G2" s="4" t="n">
+        <v>45754</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>1960</v>
@@ -393,13 +407,16 @@
       <c r="F3" s="3" t="n">
         <v>5.2</v>
       </c>
+      <c r="G3" s="4" t="n">
+        <v>45754</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>1973</v>
@@ -414,13 +431,16 @@
       <c r="F4" s="3" t="n">
         <v>3.9</v>
       </c>
+      <c r="G4" s="4" t="n">
+        <v>45754</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>1970</v>
@@ -435,13 +455,16 @@
       <c r="F5" s="3" t="n">
         <v>4</v>
       </c>
+      <c r="G5" s="4" t="n">
+        <v>45754</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>1973</v>
@@ -456,13 +479,16 @@
       <c r="F6" s="3" t="n">
         <v>2</v>
       </c>
+      <c r="G6" s="4" t="n">
+        <v>45754</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>1964</v>
@@ -477,13 +503,16 @@
       <c r="F7" s="3" t="n">
         <v>1.2</v>
       </c>
+      <c r="G7" s="4" t="n">
+        <v>45754</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
+      <c r="A8" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>1982</v>
@@ -498,13 +527,16 @@
       <c r="F8" s="3" t="n">
         <v>5.5</v>
       </c>
+      <c r="G8" s="4" t="n">
+        <v>45754</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>2011</v>
@@ -519,13 +551,16 @@
       <c r="F9" s="3" t="n">
         <v>4.3</v>
       </c>
+      <c r="G9" s="4" t="n">
+        <v>45754</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>1968</v>
@@ -540,13 +575,16 @@
       <c r="F10" s="3" t="n">
         <v>9</v>
       </c>
+      <c r="G10" s="4" t="n">
+        <v>45754</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>1984</v>
@@ -561,13 +599,16 @@
       <c r="F11" s="3" t="n">
         <v>8.7</v>
       </c>
+      <c r="G11" s="4" t="n">
+        <v>45754</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>1964</v>
@@ -582,13 +623,16 @@
       <c r="F12" s="3" t="n">
         <v>9.8</v>
       </c>
+      <c r="G12" s="4" t="n">
+        <v>45754</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>1968</v>
@@ -602,6 +646,9 @@
       </c>
       <c r="F13" s="3" t="n">
         <v>7.3</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>45754</v>
       </c>
     </row>
   </sheetData>
